--- a/BFS_Results.xlsx
+++ b/BFS_Results.xlsx
@@ -1,37 +1,282 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Oliveira\Desktop\Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF3E57-5D1F-43C2-90BB-C2DF46B6A24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>Cost Robot to Product</t>
+  </si>
+  <si>
+    <t>Cost Product to Output</t>
+  </si>
+  <si>
+    <t>Execution Time Robot to Product</t>
+  </si>
+  <si>
+    <t>Execution Time Product to Output</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\HighDensity\MatrizRandom_10x10_HighDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\HighDensity\MatrizRandom_10x10_HighDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\HighDensity\MatrizRandom_10x10_HighDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\HighDensity\MatrizRandom_10x10_HighDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\HighDensity\MatrizRandom_10x10_HighDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\LowDensity\MatrizRandom_10x10_Density_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\LowDensity\MatrizRandom_10x10_Density_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\LowDensity\MatrizRandom_10x10_Density_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\LowDensity\MatrizRandom_10x10_Density_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\LowDensity\MatrizRandom_10x10_Density_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\MediumDensity\MatrizRandom_10x10_MediumDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\MediumDensity\MatrizRandom_10x10_MediumDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\MediumDensity\MatrizRandom_10x10_MediumDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\MediumDensity\MatrizRandom_10x10_MediumDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz10x10\MediumDensity\MatrizRandom_10x10_MediumDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\HighDensity\MatrizRandom_25x25_HighDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\HighDensity\MatrizRandom_25x25_HighDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\HighDensity\MatrizRandom_25x25_HighDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\HighDensity\MatrizRandom_25x25_HighDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\LowDensity\MatrizRandom_25x25_LowDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\LowDensity\MatrizRandom_25x25_LowDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\LowDensity\MatrizRandom_25x25_LowDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\LowDensity\MatrizRandom_25x25_LowDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\LowDensity\MatrizRandom_25x25_LowDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\MediumDensity\MatrizRandom_25x25_MediumDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\MediumDensity\MatrizRandom_25x25_MediumDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\MediumDensity\MatrizRandom_25x25_MediumDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\MediumDensity\MatrizRandom_25x25_MediumDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz25x25\MediumDensity\MatrizRandom_25x25_MediumDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\HighDensity\MatrizRandom_48x52_HighDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\HighDensity\MatrizRandom_48x52_HighDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\HighDensity\MatrizRandom_48x52_HighDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\HighDensity\MatrizRandom_48x52_HighDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\HighDensity\MatrizRandom_48x52_HighDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\LowDensity\MatrizRandom_48x52_LowDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\LowDensity\MatrizRandom_48x52_LowDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\LowDensity\MatrizRandom_48x52_LowDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\LowDensity\MatrizRandom_48x52_LowDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\LowDensity\MatrizRandom_48x52_LowDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\MediumDensity\MatrizRandom_48x52_MediumDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\MediumDensity\MatrizRandom_48x52_MediumDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\MediumDensity\MatrizRandom_48x52_MediumDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\MediumDensity\MatrizRandom_48x52_MediumDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz48x52\MediumDensity\MatrizRandom_48x52_MediumDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\HighDensity\MatrizRandom_50x50_HighDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\HighDensity\MatrizRandom_50x50_HighDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\HighDensity\MatrizRandom_50x50_HighDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\HighDensity\MatrizRandom_50x50_HighDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\HighDensity\MatrizRandom_50x50_HighDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\LowDensity\MatrizRandom_50x50_LowDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\LowDensity\MatrizRandom_50x50_LowDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\LowDensity\MatrizRandom_50x50_LowDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\LowDensity\MatrizRandom_50x50_LowDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\LowDensity\MatrizRandom_50x50_LowDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\MediumDensity\MatrizRandom_50x50_MediumDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\MediumDensity\MatrizRandom_50x50_MediumDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\MediumDensity\MatrizRandom_50x50_MediumDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\MediumDensity\MatrizRandom_50x50_MediumDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz50x50\MediumDensity\MatrizRandom_50x50_MediumDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\HighDensity\MatrizRandom_75x75_HighDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\HighDensity\MatrizRandom_75x75_HighDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\HighDensity\MatrizRandom_75x75_HighDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\HighDensity\MatrizRandom_75x75_HighDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\LowDensity\MatrizRandom_75x75_LowDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\LowDensity\MatrizRandom_75x75_LowDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\LowDensity\MatrizRandom_75x75_LowDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\LowDensity\MatrizRandom_75x75_LowDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\LowDensity\MatrizRandom_75x75_LowDensity_5.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\MediumDensity\MatrizRandom_75x75_MediumDensity_1.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\MediumDensity\MatrizRandom_75x75_MediumDensity_2.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\MediumDensity\MatrizRandom_75x75_MediumDensity_3.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\MediumDensity\MatrizRandom_75x75_MediumDensity_4.txt</t>
+  </si>
+  <si>
+    <t>./Matriz_Random\Matriz75x75\MediumDensity\MatrizRandom_75x75_MediumDensity_5.txt</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +291,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,63 +615,1274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>File Path</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cost Robot to Product</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cost Product to Output</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Execution Time Robot to Product</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Execution Time Product to Output</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>./Matriz_Random\Matriz75x75\MediumDensity\MatrizRandom_75x75_MediumDensity_5.txt</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>9.9968910217285156E-4</v>
+      </c>
+      <c r="E2">
+        <v>1.000642776489258E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9.9968910217285156E-4</v>
+      </c>
+      <c r="E3">
+        <v>1.0001659393310549E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>9.9921226501464844E-4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1.0001659393310549E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1.000642776489258E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.0018348693847661E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>9.9802017211914063E-4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>9.9945068359375E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1.0008811950683589E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.0001659393310549E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>9.9873542785644531E-4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1.0001659393310549E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>9.9897384643554688E-4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1.0008811950683589E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>9.9921226501464844E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>9.9968910217285156E-4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1.0011196136474609E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1.000404357910156E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>1.0018348693847661E-3</v>
+      </c>
+      <c r="E18">
+        <v>9.9945068359375E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>66</v>
+      </c>
+      <c r="D19">
+        <v>1.0011196136474609E-3</v>
+      </c>
+      <c r="E19">
+        <v>9.9921226501464844E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>1.000404357910156E-3</v>
+      </c>
+      <c r="E20">
+        <v>9.9945068359375E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>9.9968910217285156E-4</v>
+      </c>
+      <c r="E21">
+        <v>1.0001659393310549E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>9.9873542785644531E-4</v>
+      </c>
+      <c r="E22">
+        <v>1.000404357910156E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>9.9992752075195313E-4</v>
+      </c>
+      <c r="E23">
+        <v>9.9968910217285156E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9.9992752075195313E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>2.0017623901367192E-3</v>
+      </c>
+      <c r="E25">
+        <v>9.9945068359375E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>2.0003318786621089E-3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>1.0333061218261721E-3</v>
+      </c>
+      <c r="E27">
+        <v>9.6726417541503906E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>9.6654891967773438E-4</v>
+      </c>
+      <c r="E28">
+        <v>9.9897384643554688E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2.0000934600830078E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>9.9945068359375E-4</v>
+      </c>
+      <c r="E30">
+        <v>9.9968910217285156E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>122</v>
+      </c>
+      <c r="D31">
+        <v>9.7131729125976563E-4</v>
+      </c>
+      <c r="E31">
+        <v>4.0001869201660156E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>137</v>
+      </c>
+      <c r="C32">
+        <v>92</v>
+      </c>
+      <c r="D32">
+        <v>4.0361881256103524E-3</v>
+      </c>
+      <c r="E32">
+        <v>2.9644966125488281E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>83</v>
+      </c>
+      <c r="D33">
+        <v>1.9996166229248051E-3</v>
+      </c>
+      <c r="E33">
+        <v>2.9971599578857422E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>3.0319690704345699E-3</v>
+      </c>
+      <c r="E34">
+        <v>1.9998550415039058E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>87</v>
+      </c>
+      <c r="D35">
+        <v>1.000642776489258E-3</v>
+      </c>
+      <c r="E35">
+        <v>3.9997100830078116E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>63</v>
+      </c>
+      <c r="C36">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>3.0000209808349609E-3</v>
+      </c>
+      <c r="E36">
+        <v>4.0326118469238281E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>4.0009021759033203E-3</v>
+      </c>
+      <c r="E37">
+        <v>2.0005702972412109E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>57</v>
+      </c>
+      <c r="D38">
+        <v>3.0016899108886719E-3</v>
+      </c>
+      <c r="E38">
+        <v>4.0304660797119141E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>1.0008811950683589E-3</v>
+      </c>
+      <c r="E39">
+        <v>4.0001869201660156E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>48</v>
+      </c>
+      <c r="D40">
+        <v>2.9997825622558589E-3</v>
+      </c>
+      <c r="E40">
+        <v>3.0314922332763672E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>2.0005702972412109E-3</v>
+      </c>
+      <c r="E41">
+        <v>3.9992332458496094E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>91</v>
+      </c>
+      <c r="D42">
+        <v>1.034021377563477E-3</v>
+      </c>
+      <c r="E42">
+        <v>3.9994716644287109E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>104</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>4.0230751037597656E-3</v>
+      </c>
+      <c r="E43">
+        <v>1.0001659393310549E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>115</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>4.9991607666015616E-3</v>
+      </c>
+      <c r="E44">
+        <v>1.000642776489258E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>3.0014514923095699E-3</v>
+      </c>
+      <c r="E45">
+        <v>2.9978752136230469E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>110</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>2.99835205078125E-3</v>
+      </c>
+      <c r="E46">
+        <v>1.0001659393310549E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>78</v>
+      </c>
+      <c r="C47">
+        <v>95</v>
+      </c>
+      <c r="D47">
+        <v>1.9629001617431641E-3</v>
+      </c>
+      <c r="E47">
+        <v>4.0259361267089844E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>122</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2.998590469360352E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>113</v>
+      </c>
+      <c r="C49">
+        <v>88</v>
+      </c>
+      <c r="D49">
+        <v>2.99835205078125E-3</v>
+      </c>
+      <c r="E49">
+        <v>3.002166748046875E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>42</v>
+      </c>
+      <c r="C50">
+        <v>88</v>
+      </c>
+      <c r="D50">
+        <v>9.6678733825683594E-4</v>
+      </c>
+      <c r="E50">
+        <v>3.9982795715332031E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>46</v>
+      </c>
+      <c r="D51">
+        <v>3.997802734375E-3</v>
+      </c>
+      <c r="E51">
+        <v>3.0016899108886719E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>59</v>
+      </c>
+      <c r="D52">
+        <v>1.998662948608398E-3</v>
+      </c>
+      <c r="E52">
+        <v>5.0001144409179688E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>90</v>
+      </c>
+      <c r="D53">
+        <v>1.0015964508056641E-3</v>
+      </c>
+      <c r="E53">
+        <v>3.9985179901123047E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>83</v>
+      </c>
+      <c r="D54">
+        <v>9.670257568359375E-4</v>
+      </c>
+      <c r="E54">
+        <v>4.9993991851806641E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <v>68</v>
+      </c>
+      <c r="D55">
+        <v>1.0001659393310549E-3</v>
+      </c>
+      <c r="E55">
+        <v>3.9989948272705078E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>87</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>2.9997825622558589E-3</v>
+      </c>
+      <c r="E56">
+        <v>3.0007362365722661E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>75</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>2.99835205078125E-3</v>
+      </c>
+      <c r="E57">
+        <v>3.0012130737304692E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>52</v>
+      </c>
+      <c r="C58">
+        <v>76</v>
+      </c>
+      <c r="D58">
+        <v>1.9984245300292969E-3</v>
+      </c>
+      <c r="E58">
+        <v>4.0001869201660156E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>105</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>3.9992332458496094E-3</v>
+      </c>
+      <c r="E59">
+        <v>9.9897384643554688E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>62</v>
+      </c>
+      <c r="D60">
+        <v>1.9989013671875E-3</v>
+      </c>
+      <c r="E60">
+        <v>4.0001869201660156E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>140</v>
+      </c>
+      <c r="D61">
+        <v>2.0015239715576172E-3</v>
+      </c>
+      <c r="E61">
+        <v>6.6463947296142578E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>195</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>7.9996585845947266E-3</v>
+      </c>
+      <c r="E62">
+        <v>9.9968910217285156E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>143</v>
+      </c>
+      <c r="C63">
+        <v>107</v>
+      </c>
+      <c r="D63">
+        <v>6.0000419616699219E-3</v>
+      </c>
+      <c r="E63">
+        <v>3.9992332458496094E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>136</v>
+      </c>
+      <c r="C64">
+        <v>142</v>
+      </c>
+      <c r="D64">
+        <v>5.001068115234375E-3</v>
+      </c>
+      <c r="E64">
+        <v>6.9997310638427726E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>129</v>
+      </c>
+      <c r="C65">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>9.9840164184570313E-3</v>
+      </c>
+      <c r="E65">
+        <v>3.0004978179931641E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>110</v>
+      </c>
+      <c r="D66">
+        <v>2.9993057250976558E-3</v>
+      </c>
+      <c r="E66">
+        <v>8.9983940124511719E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>33</v>
+      </c>
+      <c r="C67">
+        <v>131</v>
+      </c>
+      <c r="D67">
+        <v>1.0001659393310549E-3</v>
+      </c>
+      <c r="E67">
+        <v>9.9992752075195313E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <v>76</v>
+      </c>
+      <c r="D68">
+        <v>5.0013065338134774E-3</v>
+      </c>
+      <c r="E68">
+        <v>9.0003013610839844E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>49</v>
+      </c>
+      <c r="C69">
+        <v>121</v>
+      </c>
+      <c r="D69">
+        <v>2.0003318786621089E-3</v>
+      </c>
+      <c r="E69">
+        <v>1.0999202728271479E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>39</v>
+      </c>
+      <c r="C70">
+        <v>145</v>
+      </c>
+      <c r="D70">
+        <v>1.0008811950683589E-3</v>
+      </c>
+      <c r="E70">
+        <v>1.000118255615234E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>85</v>
+      </c>
+      <c r="C71">
+        <v>96</v>
+      </c>
+      <c r="D71">
+        <v>4.001617431640625E-3</v>
+      </c>
+      <c r="E71">
+        <v>8.9995861053466797E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>86</v>
+      </c>
+      <c r="C72">
+        <v>92</v>
+      </c>
+      <c r="D72">
+        <v>6.000518798828125E-3</v>
+      </c>
+      <c r="E72">
+        <v>2.1998405456542969E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>140</v>
+      </c>
+      <c r="C73">
+        <v>54</v>
+      </c>
+      <c r="D73">
+        <v>8.9983940124511719E-3</v>
+      </c>
+      <c r="E73">
+        <v>5.0015449523925781E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
         <v>124</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C74">
         <v>50</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.0260009765625</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01599836349487305</v>
+      <c r="D74">
+        <v>7.9996585845947266E-3</v>
+      </c>
+      <c r="E74">
+        <v>3.9985179901123047E-3</v>
       </c>
     </row>
   </sheetData>
